--- a/biology/Botanique/Cycas_panzhihuaensis/Cycas_panzhihuaensis.xlsx
+++ b/biology/Botanique/Cycas_panzhihuaensis/Cycas_panzhihuaensis.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Cycas panzhihuaensis (en chinois 攀枝花苏铁 Pānzhīhuā sūtiě) est un arbuste de la famille des Cycadaceae, originaire des provinces chinoises du Sichuan et de Yunnan. Il vit dans les montagnes de ces régions entre 1 100 et 2 000 mètres.
 Ce Cycas est peut-être le seul représentant du genre à pouvoir supporter des températures hivernales particulièrement basses, -15 °C à l'âge juvénile en pleine terre.
@@ -513,7 +525,9 @@
           <t>Caractéristiques botaniques</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Feuillage vert sombre, penné, aux folioles plus espacées que Cycas revoluta.
 Plante dioïque.
@@ -547,7 +561,9 @@
           <t>Culture</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Cycas panzhihuaensis supporte l'humidité estivale et hivernale, mais apprécie un sol bien drainé en région plus continentale, il peut supporter des températures de -15 °C à l'âge juvénile s'il est planté depuis plusieurs années.
 La jeune plante peut déjà souffrir dès -5 °C.
@@ -581,7 +597,9 @@
           <t>Multiplication</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Bouturage de mini caudex apparaissant sur le caudex mère après ressui de 2 jours au frais.
 Germination des graines après trempage, à une température de 30 °C dans un terreau désinfecté au micro-onde.
